--- a/medicine/Psychotrope/Smoking_Room/Smoking_Room.xlsx
+++ b/medicine/Psychotrope/Smoking_Room/Smoking_Room.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Smoking Room est un film espagnol réalisé par Roger Gual et Julio D. Wallovits, sorti en 2002.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La filiale espagnole d'une société américaine est contrainte d'interdire le tabac dans ses bureaux. Ceux qui veulent fumer pendant les heures de travail doivent le faire dans la rue. Ramírez, l'un des employés, commence à recueillir des signatures pour qu'un bureau inoccupé soit utilisé comme fumoir. En principe, tout le monde semble d'accord, mais au moment de vérité, ils trouvent toutes sortes d'excuses pour ne pas figurer sur cette liste.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Smoking Room
 Réalisation : Roger Gual et Julio D. Wallovits
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Eduard Fernández : Ramírez
 Juan Diego : Sotomayor
@@ -624,9 +642,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a été nommé pour deux prix Goya et a reçu le prix Goya du meilleur nouveau réalisateur[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été nommé pour deux prix Goya et a reçu le prix Goya du meilleur nouveau réalisateur.
 </t>
         </is>
       </c>
